--- a/biology/Médecine/Ahmed_Dhieb/Ahmed_Dhieb.xlsx
+++ b/biology/Médecine/Ahmed_Dhieb/Ahmed_Dhieb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ahmed Dhieb (arabe : أحمد ذياب), né le 14 février 1946 à Sfax, est un médecin, universitaire et traducteur tunisien.
 Partisan de l'arabisation de l'enseignement médical, à commencer par celui de l'anatomie, il est également connu comme l'un des promoteurs de l'arabisation dans le monde arabe.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né de parents pauvres, Ahmed Dhieb est inscrit à l'école coranique à l'âge de cinq ans mais, comme ses cousins se rendent à l'école franco-arabe, sa mère l'y inscrit à l'insu de son père. Lorsque, des mois plus tard, il apprend ce changement, il jure qu'au premier échec de son fils, il mettrait fin à cette inscription. Ayant terminé sa sixième année, à l'âge de 12 ans, son père décide de mettre fin à sa scolarité, préférant lui faire apprendre un métier. Cependant, le jeune Ahmed demande de l'aide aux responsables de la maison de bienfaisance de Sfax pour le mettre à l'abri. Quittant définitivement ses parents, il travaille dur pour obtenir des prix d'excellence et le baccalauréat scientifique avec mention.
 Son séjour dans cette maison de bienfaisance, hors de tout lien familial et avec d'autres enfants pauvres, orphelins et nés de parents inconnus, forge son tempérament. Il finit par partir sans bourse en France, exerçant de petits métiers afin d'assurer le coût de ses études médicales ; il obtient un doctorat en médecine et un autre en biologie humaine (anatomie et anthropologie humaine), ainsi qu'une agrégation en anatomie et chirurgie. Devenu externe puis interne des hôpitaux de Paris et assistant à la faculté de médecine de Paris, il se bat en Tunisie pour la création de la faculté de médecine de Sfax, où il devient assistant, et pour un enseignement de la médecine moderne mais adapté à son environnement arabophone et tenant compte des particularités de la région.
@@ -546,7 +560,9 @@
           <t>Associations et sociétés scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Membre de la Société tunisienne des sciences médicales
 Membre de la Société anatomique de Paris
